--- a/Procurement/Spend_Data.xlsx
+++ b/Procurement/Spend_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\Procurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED91656-0492-4128-8A65-090FFC3E40E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B24923-AF1D-4F6B-A6C2-74056315A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D2739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
